--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdes\Documents\GitHub\opensaber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90672AC-876F-43D0-BA5E-8ADABE269419}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC61C8AC-A045-4564-AFA1-148DB0CE0009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22D4CB36-F8E9-4CA6-8164-ECC598C1986E}"/>
+    <workbookView xWindow="28680" yWindow="-3060" windowWidth="29040" windowHeight="15840" xr2:uid="{22D4CB36-F8E9-4CA6-8164-ECC598C1986E}"/>
   </bookViews>
   <sheets>
     <sheet name="partlist" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>FtM Micro USB</t>
+  </si>
+  <si>
+    <t>Audio Amp+Speaker</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>3.3V analog in</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/3885</t>
   </si>
 </sst>
 </file>
@@ -505,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FB3FCB-F09F-4B18-8D3C-7DB3970F7E45}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +583,7 @@
       </c>
       <c r="J2" s="1">
         <f>SUM($G:$G)</f>
-        <v>84.69</v>
+        <v>90.64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -602,7 +614,7 @@
       </c>
       <c r="J3" s="1">
         <f>1.1*J2</f>
-        <v>93.159000000000006</v>
+        <v>99.704000000000008</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -723,6 +735,30 @@
       <c r="G8" s="1">
         <f>E8*F8</f>
         <v>4.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="G9" s="1">
+        <f>E9*F9</f>
+        <v>5.95</v>
       </c>
     </row>
   </sheetData>
@@ -734,6 +770,7 @@
     <hyperlink ref="D5" r:id="rId5" xr:uid="{0B2549FC-BB14-49E1-A145-1915B8D1F3C1}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{64680218-A5CC-4A52-8B7E-64C2A8FF5FEF}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{07C3784A-2F7A-4101-B7E6-6B0C9DDC57C3}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{76CF0625-22FC-480D-87FF-8F3C61194DD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/partlist.xlsx
+++ b/partlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdes\Documents\GitHub\opensaber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC61C8AC-A045-4564-AFA1-148DB0CE0009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D4723-82C3-4E1A-A87B-9E51D4F4F4C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-3060" windowWidth="29040" windowHeight="15840" xr2:uid="{22D4CB36-F8E9-4CA6-8164-ECC598C1986E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -114,15 +114,6 @@
     <t>https://www.adafruit.com/product/1944</t>
   </si>
   <si>
-    <t>Capacitors</t>
-  </si>
-  <si>
-    <t>1000uF, for LEDs</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/McIgIcM-1000uf-capacitor-Aluminum-electrolytic/dp/B06WGPNM19</t>
-  </si>
-  <si>
     <t>Cable</t>
   </si>
   <si>
@@ -141,16 +132,94 @@
     <t>FtM Micro USB</t>
   </si>
   <si>
-    <t>Audio Amp+Speaker</t>
-  </si>
-  <si>
     <t>Audio</t>
   </si>
   <si>
-    <t>3.3V analog in</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/3885</t>
+    <t>Dims (mm)</t>
+  </si>
+  <si>
+    <t>27 x 15.3 x 2.75</t>
+  </si>
+  <si>
+    <t>69 x 18 x 18</t>
+  </si>
+  <si>
+    <t>22 x 37 x 2</t>
+  </si>
+  <si>
+    <t>26 x 17.8 x 4.6</t>
+  </si>
+  <si>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/288</t>
+  </si>
+  <si>
+    <t>Wire connector</t>
+  </si>
+  <si>
+    <t>pack of 3</t>
+  </si>
+  <si>
+    <t>Wire spool - 25ft</t>
+  </si>
+  <si>
+    <t>Solid core, 22awg</t>
+  </si>
+  <si>
+    <t>8.3 x 18.6 x 29.9</t>
+  </si>
+  <si>
+    <t>3-wire block</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/866</t>
+  </si>
+  <si>
+    <t>Pushbutton</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Normal open</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/1505</t>
+  </si>
+  <si>
+    <t>15 x 15.5</t>
+  </si>
+  <si>
+    <t>JST socket to cable</t>
+  </si>
+  <si>
+    <t>200mm</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/4046</t>
+  </si>
+  <si>
+    <t>Audio Amp</t>
+  </si>
+  <si>
+    <t>2.5W</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/2130</t>
+  </si>
+  <si>
+    <t>Mini speaker</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>8ohm 1W</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/3923</t>
   </si>
 </sst>
 </file>
@@ -517,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FB3FCB-F09F-4B18-8D3C-7DB3970F7E45}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,11 +600,11 @@
     <col min="5" max="5" width="7.44140625" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,8 +626,11 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -569,24 +641,27 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>8.9499999999999993</v>
       </c>
       <c r="G2" s="1">
         <f>E2*F2</f>
-        <v>17.899999999999999</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1">
         <f>SUM($G:$G)</f>
-        <v>90.64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>86.450000000000031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -609,15 +684,15 @@
         <f t="shared" ref="G3" si="0">E3*F3</f>
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="1">
-        <f>1.1*J2</f>
-        <v>99.704000000000008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1">
+        <f>1.1*(K2+10)</f>
+        <v>106.09500000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -637,11 +712,14 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="G4" s="1">
-        <f>E4*F4</f>
+        <f t="shared" ref="G4:G13" si="1">E4*F4</f>
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -661,11 +739,14 @@
         <v>14.95</v>
       </c>
       <c r="G5" s="1">
-        <f>E5*F5</f>
+        <f t="shared" si="1"/>
         <v>14.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -685,13 +766,16 @@
         <v>6.95</v>
       </c>
       <c r="G6" s="1">
-        <f>E6*F6</f>
+        <f t="shared" si="1"/>
         <v>6.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -706,59 +790,161 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>4.99</v>
+        <v>4.95</v>
       </c>
       <c r="G7" s="1">
-        <f>E7*F7</f>
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>4.95</v>
       </c>
-      <c r="G8" s="1">
-        <f>E8*F8</f>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5.95</v>
-      </c>
-      <c r="G9" s="1">
-        <f>E9*F9</f>
-        <v>5.95</v>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
@@ -768,9 +954,13 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{C007E36B-12F6-40E2-A9BD-65D8DEE19D9E}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{674B0188-6596-4193-B5E3-EEE5D1A3EFF1}"/>
     <hyperlink ref="D5" r:id="rId5" xr:uid="{0B2549FC-BB14-49E1-A145-1915B8D1F3C1}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{64680218-A5CC-4A52-8B7E-64C2A8FF5FEF}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{07C3784A-2F7A-4101-B7E6-6B0C9DDC57C3}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{76CF0625-22FC-480D-87FF-8F3C61194DD7}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{07C3784A-2F7A-4101-B7E6-6B0C9DDC57C3}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{893BF85F-569C-4BAA-BF98-0BE8C5D98786}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{80693A0D-36C1-4AC7-86DF-151500ED8945}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{E4715B07-44A8-480B-A5DB-3D3BF76AF45A}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{EDBFC85B-52C2-475E-BC48-D4B7F58B3B71}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{93D0BB82-912F-45D0-8495-0A6B345E2A9A}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{4E640D83-8A95-4792-A428-5020405537FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
